--- a/crm接口文档/客户来访管理/删除客户来访记录.xlsx
+++ b/crm接口文档/客户来访管理/删除客户来访记录.xlsx
@@ -26,9 +26,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>/qiuxx/crm/30010/200</t>
-  </si>
-  <si>
     <t>接口描述</t>
   </si>
   <si>
@@ -134,6 +131,10 @@
   </si>
   <si>
     <t>result为false时返回的异常信息</t>
+  </si>
+  <si>
+    <t>/qiuxx/crm/30010/300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -320,6 +321,33 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -336,33 +364,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -672,7 +673,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -685,230 +686,230 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="B1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="G3" s="18">
         <v>8080</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
       <c r="I6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:H7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
